--- a/biology/Zoologie/Heterorhabditis/Heterorhabditis.xlsx
+++ b/biology/Zoologie/Heterorhabditis/Heterorhabditis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterorhabditis est un genre de nématodes appartenant à l'ordre des Rhabditida et à la famille des Heterorhabditidae.
-Toutes les espèces de ce genre sont des parasites obligatoires des insectes[1], et certaines d'entre elles sont employées dans la lutte biologique contre des insectes ravageurs.
+Toutes les espèces de ce genre sont des parasites obligatoires des insectes, et certaines d'entre elles sont employées dans la lutte biologique contre des insectes ravageurs.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce de nématode, Heterorhabditis indica a été utilisée efficacement[2] contre la rhinotie hémoptère, Rhinotia haemoptera, insecte ravageur des plantations de cocotiers qui peut aussi migrer vers les palmiers-dattiers et d'autres palmiers, provoquant des pertes économiques importantes pour les agriculteurs.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce de nématode, Heterorhabditis indica a été utilisée efficacement contre la rhinotie hémoptère, Rhinotia haemoptera, insecte ravageur des plantations de cocotiers qui peut aussi migrer vers les palmiers-dattiers et d'autres palmiers, provoquant des pertes économiques importantes pour les agriculteurs.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (19 août 2011)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (19 août 2011) :
 Heterorhabditis amazonensis
 Heterorhabditis argentinensis
 Heterorhabditis atacamensis
